--- a/Util/Arquivos/Relatorios/cruzamento_cargo_x_escolaridade.xlsx
+++ b/Util/Arquivos/Relatorios/cruzamento_cargo_x_escolaridade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Qual é o seu cargo atual na empresa?</t>
+          <t>Colaborador</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade</t>
+          <t>Líder</t>
         </is>
       </c>
     </row>
@@ -456,118 +456,50 @@
           <t>Ensino Fundamental Completo</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Colaborador</t>
-        </is>
+      <c r="B2" t="n">
+        <v>75</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ensino Fundamental Completo</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Líder</t>
-        </is>
+          <t>Ensino Médio Completo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>92.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ensino Médio Completo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Colaborador</t>
-        </is>
+          <t>Graduação Completa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>74.47</v>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>25.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ensino Médio Completo</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Líder</t>
-        </is>
+          <t>Pós Graduação (Especialização e/ou MBA) Completa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>86.95999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Graduação Completa</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Colaborador</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Graduação Completa</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Líder</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Pós Graduação (Especialização e/ou MBA) Completa</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Colaborador</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Pós Graduação (Especialização e/ou MBA) Completa</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Líder</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
+        <v>13.04</v>
       </c>
     </row>
   </sheetData>
